--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Fall.120619-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Fall.120619-1.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
